--- a/Data/Forecasts/IDA2/2023-12-02_exo['y_DA'].xlsx
+++ b/Data/Forecasts/IDA2/2023-12-02_exo['y_DA'].xlsx
@@ -454,7 +454,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="B2" t="n">
-        <v>144.267822265625</v>
+        <v>149.0171813964844</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45262.47916666666</v>
       </c>
       <c r="B3" t="n">
-        <v>144.18603515625</v>
+        <v>147.2691802978516</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45262.5</v>
       </c>
       <c r="B4" t="n">
-        <v>145.2836761474609</v>
+        <v>147.1151580810547</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45262.52083333334</v>
       </c>
       <c r="B5" t="n">
-        <v>141.7918701171875</v>
+        <v>147.4776000976562</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45262.54166666666</v>
       </c>
       <c r="B6" t="n">
-        <v>144.3503570556641</v>
+        <v>153.7435607910156</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45262.5625</v>
       </c>
       <c r="B7" t="n">
-        <v>133.7543334960938</v>
+        <v>142.9864807128906</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>141.9657440185547</v>
+        <v>148.9331207275391</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="B9" t="n">
-        <v>141.5664367675781</v>
+        <v>147.4106903076172</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45262.625</v>
       </c>
       <c r="B10" t="n">
-        <v>142.25244140625</v>
+        <v>156.2419586181641</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45262.64583333334</v>
       </c>
       <c r="B11" t="n">
-        <v>156.8117980957031</v>
+        <v>172.0967864990234</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45262.66666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>162.7681274414062</v>
+        <v>178.50146484375</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45262.6875</v>
       </c>
       <c r="B13" t="n">
-        <v>203.2985076904297</v>
+        <v>222.7992553710938</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45262.70833333334</v>
       </c>
       <c r="B14" t="n">
-        <v>203.7676086425781</v>
+        <v>233.2488250732422</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45262.72916666666</v>
       </c>
       <c r="B15" t="n">
-        <v>205.3830261230469</v>
+        <v>235.0869445800781</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45262.75</v>
       </c>
       <c r="B16" t="n">
-        <v>180.3088531494141</v>
+        <v>208.1131591796875</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45262.77083333334</v>
       </c>
       <c r="B17" t="n">
-        <v>162.7982940673828</v>
+        <v>183.5649108886719</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45262.79166666666</v>
       </c>
       <c r="B18" t="n">
-        <v>143.9290466308594</v>
+        <v>159.7280883789062</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45262.8125</v>
       </c>
       <c r="B19" t="n">
-        <v>137.4210510253906</v>
+        <v>150.7450408935547</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45262.83333333334</v>
       </c>
       <c r="B20" t="n">
-        <v>130.0928955078125</v>
+        <v>139.3758697509766</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45262.85416666666</v>
       </c>
       <c r="B21" t="n">
-        <v>109.8349533081055</v>
+        <v>118.7402420043945</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45262.875</v>
       </c>
       <c r="B22" t="n">
-        <v>106.3939056396484</v>
+        <v>116.2283554077148</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45262.89583333334</v>
       </c>
       <c r="B23" t="n">
-        <v>99.28382110595703</v>
+        <v>101.978271484375</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="B24" t="n">
-        <v>100.621337890625</v>
+        <v>101.1797790527344</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45262.9375</v>
       </c>
       <c r="B25" t="n">
-        <v>85.658203125</v>
+        <v>85.94877624511719</v>
       </c>
     </row>
   </sheetData>
